--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2118.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2118.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.72215937911804</v>
+        <v>0.8643032312393188</v>
       </c>
       <c r="B1">
-        <v>1.808593355003594</v>
+        <v>2.626749515533447</v>
       </c>
       <c r="C1">
-        <v>1.421798444187665</v>
+        <v>3.354634523391724</v>
       </c>
       <c r="D1">
-        <v>1.394865653859458</v>
+        <v>1.886842250823975</v>
       </c>
       <c r="E1">
-        <v>1.525405036930816</v>
+        <v>1.444468140602112</v>
       </c>
     </row>
   </sheetData>
